--- a/CompanyManager/ExcelForm/품목등록양식.xlsx
+++ b/CompanyManager/ExcelForm/품목등록양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIN\source\repos\Team5FinalProject\CompanyManager\ExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E7A1E7-C07D-4F4B-8D07-F1D4A94E45A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519ADBB6-0425-46E3-A2D3-2E691F6B684C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49AD1023-6784-4196-8ACE-18D463260117}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{49AD1023-6784-4196-8ACE-18D463260117}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>품목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>단종유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF18DF2-6F99-43DA-B2B1-74684C264E8E}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +516,7 @@
     <col min="17" max="17" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,6 +579,9 @@
       </c>
       <c r="U1" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/CompanyManager/ExcelForm/품목등록양식.xlsx
+++ b/CompanyManager/ExcelForm/품목등록양식.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIN\source\repos\Team5FinalProject\CompanyManager\ExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519ADBB6-0425-46E3-A2D3-2E691F6B684C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C5B83D-41B4-4ACF-AEC1-D3DEFF80E953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{49AD1023-6784-4196-8ACE-18D463260117}"/>
   </bookViews>
@@ -145,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,11 +179,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,7 +506,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,13 +526,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -532,13 +541,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -574,10 +583,10 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
